--- a/data_export/liste_enregistrement.xlsx
+++ b/data_export/liste_enregistrement.xlsx
@@ -8,23 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninamartignoni/Documents/Github/Migration-italienne/data_export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C59167-61B2-1440-889E-154C2148EDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF0F63-ED6B-2F4A-9D97-D376B82C3D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{E76F13CC-D2ED-DD4A-9833-891195CD1AC0}"/>
+    <workbookView xWindow="4980" yWindow="1400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E76F13CC-D2ED-DD4A-9833-891195CD1AC0}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_enregistrement" sheetId="2" r:id="rId1"/>
-    <sheet name="Foglio1" sheetId="1" r:id="rId2"/>
+    <sheet name="données Marsico" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">liste_enregistrement!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">liste_enregistrement!$A$2:$A$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">liste_enregistrement!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">liste_enregistrement!$B$2:$B$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">liste_enregistrement!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">liste_enregistrement!$A$2:$A$24</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">liste_enregistrement!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">liste_enregistrement!$B$2:$B$24</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'données Marsico'!$B$2:$B$102</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'données Marsico'!$C$2:$C$102</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'données Marsico'!$B$42:$B$102</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'données Marsico'!$C$42:$C$102</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'données Marsico'!$B$2:$B$102</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'données Marsico'!$C$2:$C$102</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'données Marsico'!$B$2:$B$102</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'données Marsico'!$C$2:$C$102</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'données Marsico'!$B$2:$B$102</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'données Marsico'!$C$2:$C$102</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'données Marsico'!$B$42:$B$102</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'données Marsico'!$C$42:$C$102</definedName>
     <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">liste_enregistrement!$A$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -56,25 +60,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>numero_personne</t>
   </si>
+  <si>
+    <t>années</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Fréquence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Données prises des recherches de Giovanni Marsico, disponible dans le fond d'archive IMI à la Bibliothèque de la ville de la Chaux-de-Fonds </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,12 +107,23 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -99,7 +132,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -135,67 +170,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Enregistrement</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> par année</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-CH"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -217,88 +192,85 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>liste_enregistrement!$B$2:$B$24</c:f>
+              <c:f>liste_enregistrement!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>1848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>1849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>1851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>1852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>1853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>1854</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>1855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>1857</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32</c:v>
+                  <c:v>1858</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>1859</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33</c:v>
+                  <c:v>1860</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>1862</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>1863</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>1864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15</c:v>
+                  <c:v>1865</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>1866</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18</c:v>
+                  <c:v>1867</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>1868</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>1869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>liste_enregistrement!$B$2:$B$24</c:f>
+              <c:f>liste_enregistrement!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>37</c:v>
                 </c:pt>
@@ -364,16 +336,13 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C2EA-D042-AA27-63A8409A3BC1}"/>
+              <c16:uniqueId val="{00000000-6F4E-364A-B64F-CF834FCFC8CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -387,11 +356,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="568068320"/>
-        <c:axId val="568023232"/>
+        <c:axId val="1084430783"/>
+        <c:axId val="1084432495"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="568068320"/>
+        <c:axId val="1084430783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +403,7 @@
             <a:endParaRPr lang="it-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568023232"/>
+        <c:crossAx val="1084432495"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -442,7 +411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568023232"/>
+        <c:axId val="1084432495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,8 +462,8 @@
             <a:endParaRPr lang="it-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568068320"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="1084430783"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -505,8 +474,88 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Nombre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> de nouveaux arrivées par année</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -520,7 +569,902 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'données Marsico'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1809</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1811</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1814</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1817</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1820</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1823</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1837</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1838</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1839</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1871</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1874</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1876</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1879</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1887</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1889</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'données Marsico'!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F174-7B46-A53D-A05488A85FD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-32"/>
+        <c:axId val="1071862831"/>
+        <c:axId val="1071888319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1071862831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1071888319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1071888319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1071862831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="200"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="0" cap="rnd" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:bevel/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Nombre de nouveaux arrivées par année entre 1848 - 1900</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -535,16 +1479,557 @@
           <a:endParaRPr lang="it-CH"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8408619975134697E-2"/>
+          <c:y val="1.9121082823289722E-2"/>
+          <c:w val="0.94107362294816121"/>
+          <c:h val="0.85176927380365874"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'données Marsico'!$B$42:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1871</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1874</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1876</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1879</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1887</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1889</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'données Marsico'!$C$42:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-593A-0447-9A47-2FDB972BC19F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="822607584"/>
+        <c:axId val="822811696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="822607584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822811696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="822811696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822607584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -620,6 +2105,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1123,27 +2688,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Grafico 7">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1505800A-4059-9451-6C7C-5A3322A8A684}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5743B2F8-A011-AA97-B93D-5D35537039C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1156,6 +3727,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C283C64-B1A1-5C0A-F669-7EB97BF13DB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0F2C37-3C10-A05A-08EA-B599256DF92F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1505,8 +4153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501B2120-58F2-A24A-AAF3-B7B40DF77B99}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1524,7 +4172,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1848</v>
       </c>
       <c r="B2">
@@ -1532,7 +4180,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1849</v>
       </c>
       <c r="B3">
@@ -1540,7 +4188,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>1850</v>
       </c>
       <c r="B4">
@@ -1548,7 +4196,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>1851</v>
       </c>
       <c r="B5">
@@ -1556,7 +4204,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>1852</v>
       </c>
       <c r="B6">
@@ -1564,7 +4212,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>1853</v>
       </c>
       <c r="B7">
@@ -1572,7 +4220,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>1854</v>
       </c>
       <c r="B8">
@@ -1580,7 +4228,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>1855</v>
       </c>
       <c r="B9">
@@ -1588,7 +4236,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>1856</v>
       </c>
       <c r="B10">
@@ -1596,7 +4244,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>1857</v>
       </c>
       <c r="B11">
@@ -1604,7 +4252,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>1858</v>
       </c>
       <c r="B12">
@@ -1612,7 +4260,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>1859</v>
       </c>
       <c r="B13">
@@ -1620,7 +4268,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>1860</v>
       </c>
       <c r="B14">
@@ -1628,7 +4276,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>1861</v>
       </c>
       <c r="B15">
@@ -1636,7 +4284,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>1862</v>
       </c>
       <c r="B16">
@@ -1644,7 +4292,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>1863</v>
       </c>
       <c r="B17">
@@ -1652,7 +4300,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>1864</v>
       </c>
       <c r="B18">
@@ -1660,7 +4308,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>1865</v>
       </c>
       <c r="B19">
@@ -1668,7 +4316,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>1866</v>
       </c>
       <c r="B20">
@@ -1676,7 +4324,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>1867</v>
       </c>
       <c r="B21">
@@ -1684,7 +4332,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>1868</v>
       </c>
       <c r="B22">
@@ -1692,7 +4340,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>1869</v>
       </c>
       <c r="B23">
@@ -1700,11 +4348,11 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>1870</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1718,13 +4366,1145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E403F-7189-FA46-B5C9-1B22F3ACAE91}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1800</v>
+      </c>
+      <c r="B2">
+        <v>1800</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1801</v>
+      </c>
+      <c r="B3">
+        <v>1801</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1802</v>
+      </c>
+      <c r="B4">
+        <v>1802</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1803</v>
+      </c>
+      <c r="B5">
+        <v>1803</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1804</v>
+      </c>
+      <c r="B6">
+        <v>1804</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1805</v>
+      </c>
+      <c r="B7">
+        <v>1805</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1806</v>
+      </c>
+      <c r="B8">
+        <v>1806</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1807</v>
+      </c>
+      <c r="B9">
+        <v>1807</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1808</v>
+      </c>
+      <c r="B10">
+        <v>1808</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1809</v>
+      </c>
+      <c r="B11">
+        <v>1809</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1810</v>
+      </c>
+      <c r="B12">
+        <v>1810</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1811</v>
+      </c>
+      <c r="B13">
+        <v>1811</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1812</v>
+      </c>
+      <c r="B14">
+        <v>1812</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1813</v>
+      </c>
+      <c r="B15">
+        <v>1813</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1814</v>
+      </c>
+      <c r="B16">
+        <v>1814</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1815</v>
+      </c>
+      <c r="B17">
+        <v>1815</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1816</v>
+      </c>
+      <c r="B18">
+        <v>1816</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1817</v>
+      </c>
+      <c r="B19">
+        <v>1817</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1818</v>
+      </c>
+      <c r="B20">
+        <v>1818</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1819</v>
+      </c>
+      <c r="B21">
+        <v>1819</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1820</v>
+      </c>
+      <c r="B22">
+        <v>1820</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1821</v>
+      </c>
+      <c r="B23">
+        <v>1821</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1822</v>
+      </c>
+      <c r="B24">
+        <v>1822</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1823</v>
+      </c>
+      <c r="B25">
+        <v>1823</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1824</v>
+      </c>
+      <c r="B26">
+        <v>1824</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1825</v>
+      </c>
+      <c r="B27">
+        <v>1825</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1826</v>
+      </c>
+      <c r="B28">
+        <v>1826</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1827</v>
+      </c>
+      <c r="B29">
+        <v>1827</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1828</v>
+      </c>
+      <c r="B30">
+        <v>1828</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1829</v>
+      </c>
+      <c r="B31">
+        <v>1829</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1830</v>
+      </c>
+      <c r="B32">
+        <v>1830</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1831</v>
+      </c>
+      <c r="B33">
+        <v>1831</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1832</v>
+      </c>
+      <c r="B34">
+        <v>1832</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1833</v>
+      </c>
+      <c r="B35">
+        <v>1833</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1834</v>
+      </c>
+      <c r="B36">
+        <v>1834</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1835</v>
+      </c>
+      <c r="B37">
+        <v>1835</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1836</v>
+      </c>
+      <c r="B38">
+        <v>1836</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1837</v>
+      </c>
+      <c r="B39">
+        <v>1837</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1838</v>
+      </c>
+      <c r="B40">
+        <v>1838</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1839</v>
+      </c>
+      <c r="B41">
+        <v>1839</v>
+      </c>
+      <c r="C41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1840</v>
+      </c>
+      <c r="B42">
+        <v>1840</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1841</v>
+      </c>
+      <c r="B43">
+        <v>1841</v>
+      </c>
+      <c r="C43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1842</v>
+      </c>
+      <c r="B44">
+        <v>1842</v>
+      </c>
+      <c r="C44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1843</v>
+      </c>
+      <c r="B45">
+        <v>1843</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1844</v>
+      </c>
+      <c r="B46">
+        <v>1844</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1845</v>
+      </c>
+      <c r="B47">
+        <v>1845</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1846</v>
+      </c>
+      <c r="B48">
+        <v>1846</v>
+      </c>
+      <c r="C48">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1847</v>
+      </c>
+      <c r="B49">
+        <v>1847</v>
+      </c>
+      <c r="C49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1848</v>
+      </c>
+      <c r="B50">
+        <v>1848</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1849</v>
+      </c>
+      <c r="B51">
+        <v>1849</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1850</v>
+      </c>
+      <c r="B52">
+        <v>1850</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1851</v>
+      </c>
+      <c r="B53">
+        <v>1851</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1852</v>
+      </c>
+      <c r="B54">
+        <v>1852</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1853</v>
+      </c>
+      <c r="B55">
+        <v>1853</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1854</v>
+      </c>
+      <c r="B56">
+        <v>1854</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1855</v>
+      </c>
+      <c r="B57">
+        <v>1855</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1856</v>
+      </c>
+      <c r="B58">
+        <v>1856</v>
+      </c>
+      <c r="C58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1857</v>
+      </c>
+      <c r="B59">
+        <v>1857</v>
+      </c>
+      <c r="C59">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1858</v>
+      </c>
+      <c r="B60">
+        <v>1858</v>
+      </c>
+      <c r="C60">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1859</v>
+      </c>
+      <c r="B61">
+        <v>1859</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1860</v>
+      </c>
+      <c r="B62">
+        <v>1860</v>
+      </c>
+      <c r="C62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1861</v>
+      </c>
+      <c r="B63">
+        <v>1861</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1862</v>
+      </c>
+      <c r="B64">
+        <v>1862</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1863</v>
+      </c>
+      <c r="B65">
+        <v>1863</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1864</v>
+      </c>
+      <c r="B66">
+        <v>1864</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1865</v>
+      </c>
+      <c r="B67">
+        <v>1865</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1866</v>
+      </c>
+      <c r="B68">
+        <v>1866</v>
+      </c>
+      <c r="C68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1867</v>
+      </c>
+      <c r="B69">
+        <v>1867</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1868</v>
+      </c>
+      <c r="B70">
+        <v>1868</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1869</v>
+      </c>
+      <c r="B71">
+        <v>1869</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1870</v>
+      </c>
+      <c r="B72">
+        <v>1870</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1871</v>
+      </c>
+      <c r="B73">
+        <v>1871</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1872</v>
+      </c>
+      <c r="B74">
+        <v>1872</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1873</v>
+      </c>
+      <c r="B75">
+        <v>1873</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1874</v>
+      </c>
+      <c r="B76">
+        <v>1874</v>
+      </c>
+      <c r="C76">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1875</v>
+      </c>
+      <c r="B77">
+        <v>1875</v>
+      </c>
+      <c r="C77">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1876</v>
+      </c>
+      <c r="B78">
+        <v>1876</v>
+      </c>
+      <c r="C78">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1877</v>
+      </c>
+      <c r="B79">
+        <v>1877</v>
+      </c>
+      <c r="C79">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1878</v>
+      </c>
+      <c r="B80">
+        <v>1878</v>
+      </c>
+      <c r="C80">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1879</v>
+      </c>
+      <c r="B81">
+        <v>1879</v>
+      </c>
+      <c r="C81">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1880</v>
+      </c>
+      <c r="B82">
+        <v>1880</v>
+      </c>
+      <c r="C82">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1881</v>
+      </c>
+      <c r="B83">
+        <v>1881</v>
+      </c>
+      <c r="C83">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1882</v>
+      </c>
+      <c r="B84">
+        <v>1882</v>
+      </c>
+      <c r="C84">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1883</v>
+      </c>
+      <c r="B85">
+        <v>1883</v>
+      </c>
+      <c r="C85">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1884</v>
+      </c>
+      <c r="B86">
+        <v>1884</v>
+      </c>
+      <c r="C86">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1885</v>
+      </c>
+      <c r="B87">
+        <v>1885</v>
+      </c>
+      <c r="C87">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1886</v>
+      </c>
+      <c r="B88">
+        <v>1886</v>
+      </c>
+      <c r="C88">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1887</v>
+      </c>
+      <c r="B89">
+        <v>1887</v>
+      </c>
+      <c r="C89">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1888</v>
+      </c>
+      <c r="B90">
+        <v>1888</v>
+      </c>
+      <c r="C90">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1889</v>
+      </c>
+      <c r="B91">
+        <v>1889</v>
+      </c>
+      <c r="C91">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1890</v>
+      </c>
+      <c r="B92">
+        <v>1890</v>
+      </c>
+      <c r="C92">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1891</v>
+      </c>
+      <c r="B93">
+        <v>1891</v>
+      </c>
+      <c r="C93">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1892</v>
+      </c>
+      <c r="B94">
+        <v>1892</v>
+      </c>
+      <c r="C94">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1893</v>
+      </c>
+      <c r="B95">
+        <v>1893</v>
+      </c>
+      <c r="C95">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1894</v>
+      </c>
+      <c r="B96">
+        <v>1894</v>
+      </c>
+      <c r="C96">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1895</v>
+      </c>
+      <c r="B97">
+        <v>1895</v>
+      </c>
+      <c r="C97">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1896</v>
+      </c>
+      <c r="B98">
+        <v>1896</v>
+      </c>
+      <c r="C98">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1897</v>
+      </c>
+      <c r="B99">
+        <v>1897</v>
+      </c>
+      <c r="C99">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1898</v>
+      </c>
+      <c r="B100">
+        <v>1898</v>
+      </c>
+      <c r="C100">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1899</v>
+      </c>
+      <c r="B101">
+        <v>1899</v>
+      </c>
+      <c r="C101">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1900</v>
+      </c>
+      <c r="B102">
+        <v>1900</v>
+      </c>
+      <c r="C102">
+        <v>723</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data_export/liste_enregistrement.xlsx
+++ b/data_export/liste_enregistrement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninamartignoni/Documents/Github/Migration-italienne/data_export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF0F63-ED6B-2F4A-9D97-D376B82C3D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5840159C-BECF-A742-8559-A543412C9908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="1400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E76F13CC-D2ED-DD4A-9833-891195CD1AC0}"/>
   </bookViews>
@@ -17,18 +17,8 @@
     <sheet name="données Marsico" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'données Marsico'!$B$2:$B$102</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'données Marsico'!$C$2:$C$102</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'données Marsico'!$B$42:$B$102</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'données Marsico'!$C$42:$C$102</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'données Marsico'!$B$2:$B$102</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'données Marsico'!$C$2:$C$102</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'données Marsico'!$B$2:$B$102</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'données Marsico'!$C$2:$C$102</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'données Marsico'!$B$2:$B$102</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'données Marsico'!$C$2:$C$102</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'données Marsico'!$B$42:$B$102</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'données Marsico'!$C$42:$C$102</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">liste_enregistrement!$A$2:$A$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">liste_enregistrement!$B$2:$B$24</definedName>
     <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">liste_enregistrement!$A$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -170,7 +160,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Nombre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> d'italien.ne.s enregistré.e.s par année</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -192,10 +242,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>liste_enregistrement!$A$2:$A$23</c:f>
+              <c:f>liste_enregistrement!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1848</c:v>
                 </c:pt>
@@ -261,16 +311,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>liste_enregistrement!$B$2:$B$23</c:f>
+              <c:f>liste_enregistrement!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>37</c:v>
                 </c:pt>
@@ -336,13 +389,16 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6F4E-364A-B64F-CF834FCFC8CB}"/>
+              <c16:uniqueId val="{00000000-1BFB-164A-8579-0DFCADED4C03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -356,11 +412,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1084430783"/>
-        <c:axId val="1084432495"/>
+        <c:axId val="1132805472"/>
+        <c:axId val="1132807184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1084430783"/>
+        <c:axId val="1132805472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -403,7 +459,7 @@
             <a:endParaRPr lang="it-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1084432495"/>
+        <c:crossAx val="1132807184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -411,7 +467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1084432495"/>
+        <c:axId val="1132807184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +518,7 @@
             <a:endParaRPr lang="it-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1084430783"/>
+        <c:crossAx val="1132805472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3699,22 +3755,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5743B2F8-A011-AA97-B93D-5D35537039C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC1165E-E69B-A724-8058-E5A8B58689B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4154,7 +4210,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4352,7 +4408,7 @@
         <v>1870</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4368,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E403F-7189-FA46-B5C9-1B22F3ACAE91}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_export/liste_enregistrement.xlsx
+++ b/data_export/liste_enregistrement.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninamartignoni/Documents/Github/Migration-italienne/data_export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5840159C-BECF-A742-8559-A543412C9908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E8FCE-6393-3E4A-A035-4826589624FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="1400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E76F13CC-D2ED-DD4A-9833-891195CD1AC0}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_enregistrement" sheetId="2" r:id="rId1"/>
-    <sheet name="données Marsico" sheetId="1" r:id="rId2"/>
+    <sheet name="comparaison" sheetId="3" r:id="rId2"/>
+    <sheet name="données Marsico" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">liste_enregistrement!$A$2:$A$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">liste_enregistrement!$B$2:$B$24</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">comparaison!$A$1:$A$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">comparaison!$B$1:$B$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">comparaison!$C$1:$C$23</definedName>
     <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">liste_enregistrement!$A$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -89,15 +91,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -116,15 +124,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -216,7 +254,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-CH"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -581,6 +619,968 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'données Marsico'!$B$50:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'données Marsico'!$C$50:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7460-EF40-BDF4-75FAEEBE3C6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="966925423"/>
+        <c:axId val="967569151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="966925423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967569151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="967569151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966925423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>comparaison!$A$1:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparaison!$B$1:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDD9-A247-907F-38EFA493B073}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>comparaison!$A$1:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparaison!$C$1:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDD9-A247-907F-38EFA493B073}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1013364063"/>
+        <c:axId val="1013347471"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1013364063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013347471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1013347471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013364063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1460,7 +2460,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2121,6 +3121,397 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'données Marsico'!$B$50:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'données Marsico'!$C$50:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAC6-2A47-8C0A-F98910C242E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="966925423"/>
+        <c:axId val="967569151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="966925423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967569151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="967569151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966925423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2241,6 +3632,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3248,6 +4759,1528 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3788,10 +6821,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CA42BB-273A-9C4B-B91B-9C210D8FC2A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C41DE5-89B1-F6E1-3D35-7665E9D0F0FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3860,6 +6972,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F8784B-F2D2-6BF4-926F-CA53226FD016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4209,8 +7357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501B2120-58F2-A24A-AAF3-B7B40DF77B99}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4421,11 +7569,280 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88622AD-1FC8-994F-B131-62A61420E7D2}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>1848</v>
+      </c>
+      <c r="B1" s="3">
+        <v>37</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1849</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1850</v>
+      </c>
+      <c r="B3" s="3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1851</v>
+      </c>
+      <c r="B4" s="5">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1852</v>
+      </c>
+      <c r="B5" s="3">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1853</v>
+      </c>
+      <c r="B6" s="5">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1854</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1855</v>
+      </c>
+      <c r="B8" s="5">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1856</v>
+      </c>
+      <c r="B9" s="3">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1857</v>
+      </c>
+      <c r="B10" s="5">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1858</v>
+      </c>
+      <c r="B11" s="3">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1859</v>
+      </c>
+      <c r="B12" s="5">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1860</v>
+      </c>
+      <c r="B13" s="3">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>1861</v>
+      </c>
+      <c r="B14" s="5">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1862</v>
+      </c>
+      <c r="B15" s="3">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>1863</v>
+      </c>
+      <c r="B16" s="5">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1864</v>
+      </c>
+      <c r="B17" s="3">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>1865</v>
+      </c>
+      <c r="B18" s="5">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1866</v>
+      </c>
+      <c r="B19" s="3">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>1867</v>
+      </c>
+      <c r="B20" s="5">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1868</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>1869</v>
+      </c>
+      <c r="B22" s="5">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1870</v>
+      </c>
+      <c r="B23" s="3">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E403F-7189-FA46-B5C9-1B22F3ACAE91}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_export/liste_enregistrement.xlsx
+++ b/data_export/liste_enregistrement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninamartignoni/Documents/Github/Migration-italienne/data_export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E8FCE-6393-3E4A-A035-4826589624FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14443D1D-C68A-894D-8FE0-36E90DC243A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E76F13CC-D2ED-DD4A-9833-891195CD1AC0}"/>
+    <workbookView xWindow="4980" yWindow="1400" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{E76F13CC-D2ED-DD4A-9833-891195CD1AC0}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_enregistrement" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="données Marsico" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">comparaison!$A$1:$A$23</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">comparaison!$B$1:$B$23</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">comparaison!$C$1:$C$23</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'données Marsico'!$B$32:$B$87</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'données Marsico'!$C$32:$C$87</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'données Marsico'!$B$32:$B$87</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'données Marsico'!$C$32:$C$87</definedName>
     <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">liste_enregistrement!$A$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -105,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -150,19 +151,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -980,37 +992,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-CH"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1456,6 +1438,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1499,37 +1511,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-CH"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2549,23 +2530,24 @@
           <c:h val="0.85176927380365874"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'données Marsico'!$B$42:$B$102</c:f>
@@ -2950,6 +2932,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-593A-0447-9A47-2FDB972BC19F}"/>
@@ -2964,11 +2947,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="822607584"/>
         <c:axId val="822811696"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="822607584"/>
         <c:scaling>
@@ -3167,7 +3149,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3148502768563657E-2"/>
+          <c:y val="0.10931179057163309"/>
+          <c:w val="0.94240868283880008"/>
+          <c:h val="0.84362777380100218"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3464,6 +3456,580 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="966925423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'données Marsico'!$B$32:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1838</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1839</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1871</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1874</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1876</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1879</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'données Marsico'!$C$32:$C$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3547-164A-9F9C-4924183C7E7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1383238927"/>
+        <c:axId val="1383242911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1383238927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1383242911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1383242911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1383238927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3752,6 +4318,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6430,6 +7036,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6873,9 +7995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6979,16 +8101,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7008,6 +8130,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6E6B45-AA58-1451-2210-084F0B9128B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7570,10 +8728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88622AD-1FC8-994F-B131-62A61420E7D2}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7830,6 +8988,21 @@
       <c r="C23">
         <v>11</v>
       </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7841,8 +9014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E403F-7189-FA46-B5C9-1B22F3ACAE91}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:C72"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_export/liste_enregistrement.xlsx
+++ b/data_export/liste_enregistrement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninamartignoni/Documents/Github/Migration-italienne/data_export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14443D1D-C68A-894D-8FE0-36E90DC243A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF10EC4-C10E-274C-8621-BDC902D094C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="1400" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{E76F13CC-D2ED-DD4A-9833-891195CD1AC0}"/>
   </bookViews>
@@ -18,10 +18,6 @@
     <sheet name="données Marsico" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'données Marsico'!$B$32:$B$87</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'données Marsico'!$C$32:$C$87</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'données Marsico'!$B$32:$B$87</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'données Marsico'!$C$32:$C$87</definedName>
     <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">liste_enregistrement!$A$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -173,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -9015,7 +9011,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="C64" sqref="C59:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
